--- a/biology/Botanique/Condylocarpon/Condylocarpon.xlsx
+++ b/biology/Botanique/Condylocarpon/Condylocarpon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Condylocarpon est un genre de lianes néotropicales appartenant à la famille des Apocynaceae, comportant 7 espèces et dont l'espèce type est Condylocarpon guyanense Desf..
 Le nom Condylocarpon signifie fruit articulé (carpon, du grec « καρπός » - fruit, et condylo-, du grec « κόνδυλος » - articulation).
@@ -512,9 +524,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1822, le botaniste Desfontaines propose la diagnose suivante[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1822, le botaniste Desfontaines propose la diagnose suivante : 
 « J'ai cru devoir publier ce genre, quoique les fleurs me soient inconnues, le fruit m'ayant offert des caractères très-remarquables et qui le distinguent de tous ceux de la famille des Apocinées, à laquelle il appartient. Ce genre est indigène des forêts de la Guyane, où feu Joseph Martin, directeur du jardin de botanique et des pépinières royales de la colonie de Cayenne, en recueillit des rameaux garnis de fruits conservés dans son herbier , qui appartient maintenant au Muséum. »
 « CONDYLOCARPON.
 Calix parvus , persistens, quinquepartitus.
@@ -550,9 +564,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (03 janvier 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (03 janvier 2022) :
 Condylocarpon amazonicum (Markgr.) Ducke - Suriname, Venezuela, Bolivie, NW Brésil
 †Condylocarpon glabrum Müll.Arg.  - Espírito Santo (Brésil) - espèce éteinte
 Condylocarpon guyanense Desf. - Guyane, Guyana, Amapá
